--- a/CoreFramework1/src/main/java/com/rupjit/automationqa/data/C suite.xlsx
+++ b/CoreFramework1/src/main/java/com/rupjit/automationqa/data/C suite.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="14925" windowHeight="5955"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:D3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>TCID</t>
+    <t>TCName</t>
   </si>
   <si>
     <t>Description</t>
@@ -25,7 +26,7 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>Results</t>
   </si>
   <si>
     <t>TestCase C1</t>
@@ -51,12 +52,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,14 +67,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,16 +88,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,38 +104,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,67 +135,76 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,187 +219,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,33 +416,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -484,15 +461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,159 +476,185 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,7 +982,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/CoreFramework1/src/main/java/com/rupjit/automationqa/data/C suite.xlsx
+++ b/CoreFramework1/src/main/java/com/rupjit/automationqa/data/C suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14925" windowHeight="5955"/>
+    <workbookView windowWidth="14895" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>TCName</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t>TestCase C1</t>
+    <t>TestCase_C1</t>
   </si>
   <si>
     <t>Description for TestCase C1</t>
@@ -41,10 +41,19 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>TestCase C2</t>
+    <t>TestCase_C2</t>
   </si>
   <si>
     <t>Description for TestCase C2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -52,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,14 +76,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,22 +98,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,93 +158,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +228,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,157 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,11 +422,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,58 +522,58 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -573,88 +582,88 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,14 +991,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="44.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.7142857142857" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1017,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1028,7 +1038,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
